--- a/biology/Zoologie/Alethodontus/Alethodontus.xlsx
+++ b/biology/Zoologie/Alethodontus/Alethodontus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alethodontus bavariensis
-Alethodontus est un genre éteint de chimères qui a vécu lors de l’Hettangien. Une seule espèce est connue, Alethodontus bavariensis, mise au jour en Bavière[1].
+Alethodontus est un genre éteint de chimères qui a vécu lors de l’Hettangien. Une seule espèce est connue, Alethodontus bavariensis, mise au jour en Bavière.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Alethodontus et l'espèce Alethodontus bavariensis ont été décrits en 1983 par le paléontologue britannique Christopher J. Duffin (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Alethodontus et l'espèce Alethodontus bavariensis ont été décrits en 1983 par le paléontologue britannique Christopher J. Duffin (d),.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Alethodontus, dérive du grec ancien άλήθω, aletho, « moudre au moulin » et ὀδούς, odoús, « dent »[2].
-Son épithète spécifique, composée de bavari[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte, la Bavière[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Alethodontus, dérive du grec ancien άλήθω, aletho, « moudre au moulin » et ὀδούς, odoús, « dent ».
+Son épithète spécifique, composée de bavari[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte, la Bavière.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Christopher J. Duffin, « Holocephalans in the Staatliches Museum für Naturkunde in Stuttgart 2. A myriacanthid tooth plate from the Hettangian (Lower Lias) of northern Bavaria », Stuttgarter Beiträge zur Naturkunde (B), Musée d'histoire naturelle de Stuttgart, vol. 98, no 7S,‎ 30 décembre 1983, p. 1-7 (ISSN 0341-0153, lire en ligne)</t>
         </is>
